--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,100 +40,91 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +493,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -605,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,31 +622,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7597402597402597</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -713,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3218884120171674</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,119 +722,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>158</v>
+        <v>427</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.875</v>
+      </c>
+      <c r="L6">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>98</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8292682926829268</v>
+      </c>
+      <c r="L7">
+        <v>68</v>
+      </c>
+      <c r="M7">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.90625</v>
-      </c>
-      <c r="L6">
-        <v>29</v>
-      </c>
-      <c r="M6">
-        <v>29</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.186046511627907</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.796875</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,21 +798,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,21 +824,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,21 +850,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8214285714285714</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,21 +876,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,21 +902,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,21 +928,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L14">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,21 +954,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7435897435897436</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,21 +980,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.5117493472584856</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5868544600938967</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L22">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="M22">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>88</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.3694915254237288</v>
       </c>
       <c r="L25">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4651162790697674</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4285714285714285</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,33 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28">
-        <v>0.4130434782608696</v>
-      </c>
-      <c r="L28">
-        <v>38</v>
-      </c>
-      <c r="M28">
-        <v>38</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>54</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -46,40 +46,46 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safety</t>
   </si>
   <si>
     <t>confidence</t>
@@ -88,25 +94,22 @@
     <t>safe</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
@@ -118,16 +121,13 @@
     <t>care</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.6061643835616438</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1798941798941799</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>155</v>
+        <v>423</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1724806201550388</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8292682926829268</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L8">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7931034482758621</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7666666666666667</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -910,13 +910,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7394366197183099</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -936,13 +936,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7075471698113207</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L14">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -962,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L15">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6862745098039216</v>
+        <v>0.69375</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.64</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6349206349206349</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1066,13 +1066,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6276595744680851</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1092,13 +1092,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1118,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5117493472584856</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L21">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>196</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>187</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4705882352941176</v>
+        <v>0.4908616187989556</v>
       </c>
       <c r="L22">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="M22">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4269662921348314</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.3835616438356164</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1222,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.3694915254237288</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L25">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="M25">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.358974358974359</v>
+        <v>0.3430962343096234</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3221757322175732</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L27">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -55,34 +55,34 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>safe</t>
   </si>
   <si>
     <t>safety</t>
@@ -91,27 +91,24 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -124,10 +121,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6061643835616438</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1802325581395349</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -704,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1798941798941799</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -754,13 +754,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -780,13 +780,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8055555555555556</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -806,13 +806,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8048780487804879</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -832,13 +832,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -858,13 +858,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -884,13 +884,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -962,13 +962,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7183098591549296</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L15">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="M15">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -988,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.69375</v>
+        <v>0.7</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1014,13 +1014,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6886792452830188</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L17">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1040,13 +1040,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6190476190476191</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1118,13 +1118,13 @@
         <v>31</v>
       </c>
       <c r="K21">
-        <v>0.574468085106383</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1144,13 +1144,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.4908616187989556</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L22">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="M22">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1170,13 +1170,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4735294117647059</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L23">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>179</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1196,13 +1196,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4719101123595505</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>47</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1222,13 +1222,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4169491525423729</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L25">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>172</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1248,13 +1248,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.3430962343096234</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L26">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="M26">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>157</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1274,13 +1274,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3424657534246575</v>
+        <v>0.3138075313807531</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
